--- a/tools/hitrust/HITRUST_CSF_v11_Complete.xlsx
+++ b/tools/hitrust/HITRUST_CSF_v11_Complete.xlsx
@@ -1469,7 +1469,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>reference_controls:RC-01</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1516,7 +1516,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>reference_controls:RC-01</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1559,7 +1559,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>reference_controls:RC-01</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1602,7 +1602,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>reference_controls:RC-01</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1645,7 +1645,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>reference_controls:RC-01</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>reference_controls:RC-01</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1762,7 +1762,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1848,7 +1848,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1891,7 +1891,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1977,7 +1977,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2020,7 +2020,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2063,7 +2063,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2106,7 +2106,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2149,7 +2149,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2192,7 +2192,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2235,7 +2235,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2278,7 +2278,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>reference_controls:RC-02</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-02</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2395,7 +2395,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>reference_controls:RC-03</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-03</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>reference_controls:RC-03</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-03</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>reference_controls:RC-03</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-03</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>reference_controls:RC-03</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-03</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2567,7 +2567,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>reference_controls:RC-03</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-03</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2610,7 +2610,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>reference_controls:RC-03</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-03</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2684,7 +2684,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>reference_controls:RC-04</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2727,7 +2727,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>reference_controls:RC-04</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-04</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2770,7 +2770,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>reference_controls:RC-04</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-04</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>reference_controls:RC-04</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-04</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>reference_controls:RC-04</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-04</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2930,7 +2930,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>reference_controls:RC-05</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-05</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>reference_controls:RC-05</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-05</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -3016,7 +3016,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>reference_controls:RC-05</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -3059,7 +3059,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>reference_controls:RC-05</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-05</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3102,7 +3102,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>reference_controls:RC-05</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-05</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3145,7 +3145,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>reference_controls:RC-05</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-05</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>reference_controls:RC-05</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-05</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3262,7 +3262,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3305,7 +3305,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3348,7 +3348,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3391,7 +3391,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3434,7 +3434,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3477,7 +3477,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3563,7 +3563,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3606,7 +3606,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3649,7 +3649,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3692,7 +3692,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3735,7 +3735,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -3778,7 +3778,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3864,7 +3864,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>reference_controls:RC-06</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-06</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3938,7 +3938,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3981,7 +3981,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4024,7 +4024,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -4067,7 +4067,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4153,7 +4153,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4196,7 +4196,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>reference_controls:RC-08</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-08</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4239,7 +4239,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>reference_controls:RC-08</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-08</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -4282,7 +4282,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>reference_controls:RC-08</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-08</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -4325,7 +4325,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -4368,7 +4368,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -4454,7 +4454,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -4497,7 +4497,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -4540,7 +4540,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -4583,7 +4583,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -4669,7 +4669,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -4712,7 +4712,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>reference_controls:RC-07</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-07</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -4798,7 +4798,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -4841,7 +4841,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>reference_controls:RC-09</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-09</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -4915,7 +4915,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -4958,7 +4958,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -5044,7 +5044,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -5087,7 +5087,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -5130,7 +5130,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -5173,7 +5173,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -5216,7 +5216,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -5259,7 +5259,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>reference_controls:RC-10</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-10</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -5419,7 +5419,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -5462,7 +5462,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -5505,7 +5505,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -5548,7 +5548,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -5591,7 +5591,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -5634,7 +5634,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -5677,7 +5677,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>reference_controls:RC-11</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-11</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -5751,7 +5751,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -5794,7 +5794,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -5837,7 +5837,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -5880,7 +5880,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -5923,7 +5923,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -5966,7 +5966,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -6009,7 +6009,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -6052,7 +6052,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>reference_controls:RC-12</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-12</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -6126,7 +6126,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -6169,7 +6169,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -6212,7 +6212,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -6255,7 +6255,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -6298,7 +6298,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -6341,7 +6341,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -6384,7 +6384,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -6427,7 +6427,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -6470,7 +6470,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>reference_controls:RC-13</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-13</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -6587,7 +6587,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>reference_controls:RC-14</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-14</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -6630,7 +6630,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>reference_controls:RC-14</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-14</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -6673,7 +6673,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>reference_controls:RC-14</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-14</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -6716,7 +6716,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>reference_controls:RC-14</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-14</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -6759,7 +6759,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>reference_controls:RC-14</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-14</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -6833,7 +6833,7 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>reference_controls:RC-15</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-15</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>reference_controls:RC-15</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-15</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>reference_controls:RC-15</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-15</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -6962,7 +6962,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>reference_controls:RC-15</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-15</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -7005,7 +7005,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>reference_controls:RC-15</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-15</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -7079,7 +7079,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>reference_controls:RC-16</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-16</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -7122,7 +7122,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>reference_controls:RC-16</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-16</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -7165,7 +7165,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>reference_controls:RC-16</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-16</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -7208,7 +7208,7 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>reference_controls:RC-16</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-16</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -7251,7 +7251,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>reference_controls:RC-16</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-16</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -7294,7 +7294,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>reference_controls:RC-16</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-16</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -7337,7 +7337,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>reference_controls:RC-16</t>
+          <t>urn:intuitem:risk:reference_control:hitrust-csf-v11:rc-16</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
